--- a/data/processed/Cs137.xlsx
+++ b/data/processed/Cs137.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="F1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="F2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="F3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="F4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="FD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="F4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FD" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3303,25 +3303,25 @@
         <v>11.88504916863032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0001161664029974481</v>
+        <v>0.0001161664029974483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001380643411367596</v>
+        <v>0.001380643411367597</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01688682653820434</v>
+        <v>0.01688682653820436</v>
       </c>
       <c r="F47" t="n">
         <v>2.424550030400585</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0001161664029974481</v>
+        <v>0.0001161664029974483</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0002816512559189895</v>
+        <v>0.0002816512559189898</v>
       </c>
       <c r="I47" t="n">
-        <v>0.003444912613793684</v>
+        <v>0.003444912613793687</v>
       </c>
     </row>
     <row r="48">
@@ -3332,19 +3332,19 @@
         <v>13.33525760286527</v>
       </c>
       <c r="C48" t="n">
-        <v>4.218493869118408e-05</v>
+        <v>4.218493869118407e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0005625470244080176</v>
+        <v>0.0005625470244080175</v>
       </c>
       <c r="E48" t="n">
-        <v>0.007720150668653176</v>
+        <v>0.007720150668653175</v>
       </c>
       <c r="F48" t="n">
         <v>2.720392550984514</v>
       </c>
       <c r="G48" t="n">
-        <v>4.218493869118408e-05</v>
+        <v>4.218493869118407e-05</v>
       </c>
       <c r="H48" t="n">
         <v>0.0001147595929792356</v>
@@ -3390,25 +3390,25 @@
         <v>16.78812766649844</v>
       </c>
       <c r="C50" t="n">
-        <v>2.951747687355052e-06</v>
+        <v>2.951747687355055e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>4.955431701460812e-05</v>
+        <v>4.955431701460818e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0008561488799358037</v>
+        <v>0.0008561488799358048</v>
       </c>
       <c r="F50" t="n">
         <v>3.424778043965681</v>
       </c>
       <c r="G50" t="n">
-        <v>2.951747687355052e-06</v>
+        <v>2.951747687355055e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>1.010908067098006e-05</v>
+        <v>1.010908067098007e-05</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0001746543715069039</v>
+        <v>0.0001746543715069041</v>
       </c>
     </row>
     <row r="51">
@@ -3419,7 +3419,7 @@
         <v>18.83660756687859</v>
       </c>
       <c r="C51" t="n">
-        <v>7.22291149840786e-07</v>
+        <v>7.222911498407862e-07</v>
       </c>
       <c r="D51" t="n">
         <v>1.360551493858039e-05</v>
@@ -3431,13 +3431,13 @@
         <v>3.842667943643232</v>
       </c>
       <c r="G51" t="n">
-        <v>7.22291149840786e-07</v>
+        <v>7.222911498407862e-07</v>
       </c>
       <c r="H51" t="n">
-        <v>2.775525047470399e-06</v>
+        <v>2.7755250474704e-06</v>
       </c>
       <c r="I51" t="n">
-        <v>5.38038527895734e-05</v>
+        <v>5.380385278957341e-05</v>
       </c>
     </row>
     <row r="52">
@@ -4901,19 +4901,19 @@
         <v>10.59255081134765</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0006931192929075755</v>
+        <v>0.0006931192929075754</v>
       </c>
       <c r="D46" t="n">
         <v>0.007341901328448848</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05345540541792854</v>
+        <v>0.05345540541792853</v>
       </c>
       <c r="F46" t="n">
         <v>2.16088036551492</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0006931192929075755</v>
+        <v>0.0006931192929075754</v>
       </c>
       <c r="H46" t="n">
         <v>0.001497747871003565</v>
@@ -4930,25 +4930,25 @@
         <v>11.88504916863032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0002894026381136347</v>
+        <v>0.0002894026381136348</v>
       </c>
       <c r="D47" t="n">
         <v>0.003439564583511876</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02809874864918562</v>
+        <v>0.02809874864918563</v>
       </c>
       <c r="F47" t="n">
         <v>2.424550030400585</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0002894026381136347</v>
+        <v>0.0002894026381136348</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0007016711750364226</v>
+        <v>0.0007016711750364227</v>
       </c>
       <c r="I47" t="n">
-        <v>0.005732144724433866</v>
+        <v>0.005732144724433867</v>
       </c>
     </row>
     <row r="48">
@@ -4962,7 +4962,7 @@
         <v>0.0001115282875063943</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001487258443904187</v>
+        <v>0.001487258443904188</v>
       </c>
       <c r="E48" t="n">
         <v>0.01363233911930131</v>
@@ -4974,10 +4974,10 @@
         <v>0.0001115282875063943</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0003034007225564542</v>
+        <v>0.0003034007225564543</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002780997180337466</v>
+        <v>0.002780997180337467</v>
       </c>
     </row>
     <row r="49">
@@ -4988,25 +4988,25 @@
         <v>14.96241982777339</v>
       </c>
       <c r="C49" t="n">
-        <v>3.908065121775061e-05</v>
+        <v>3.908065121775058e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0005847411106627679</v>
+        <v>0.0005847411106627674</v>
       </c>
       <c r="E49" t="n">
-        <v>0.006013786321298041</v>
+        <v>0.006013786321298037</v>
       </c>
       <c r="F49" t="n">
         <v>3.052333644865771</v>
       </c>
       <c r="G49" t="n">
-        <v>3.908065121775061e-05</v>
+        <v>3.908065121775058e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001192871865752046</v>
+        <v>0.0001192871865752045</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0012268124095448</v>
+        <v>0.001226812409544799</v>
       </c>
     </row>
     <row r="50">
@@ -5017,25 +5017,25 @@
         <v>16.78812766649844</v>
       </c>
       <c r="C50" t="n">
-        <v>1.059889629374776e-05</v>
+        <v>1.059889629374777e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001779356241034145</v>
+        <v>0.0001779356241034146</v>
       </c>
       <c r="E50" t="n">
-        <v>0.002053277732670279</v>
+        <v>0.00205327773267028</v>
       </c>
       <c r="F50" t="n">
         <v>3.424778043965681</v>
       </c>
       <c r="G50" t="n">
-        <v>1.059889629374776e-05</v>
+        <v>1.059889629374777e-05</v>
       </c>
       <c r="H50" t="n">
-        <v>3.629886731709656e-05</v>
+        <v>3.629886731709658e-05</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0004188686574647368</v>
+        <v>0.000418868657464737</v>
       </c>
     </row>
     <row r="51">
@@ -5046,22 +5046,22 @@
         <v>18.83660756687859</v>
       </c>
       <c r="C51" t="n">
-        <v>2.59932686746575e-06</v>
+        <v>2.599326867465751e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.896250014049618e-05</v>
+        <v>4.896250014049619e-05</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00063394094663149</v>
+        <v>0.0006339409466314903</v>
       </c>
       <c r="F51" t="n">
         <v>3.842667943643232</v>
       </c>
       <c r="G51" t="n">
-        <v>2.59932686746575e-06</v>
+        <v>2.599326867465751e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>9.988350028661221e-06</v>
+        <v>9.988350028661224e-06</v>
       </c>
       <c r="I51" t="n">
         <v>0.000129323953112824</v>
@@ -5075,7 +5075,7 @@
         <v>21.13504207718439</v>
       </c>
       <c r="C52" t="n">
-        <v>5.01267065010128e-07</v>
+        <v>5.012670650101282e-07</v>
       </c>
       <c r="D52" t="n">
         <v>1.059430051089578e-05</v>
@@ -5087,13 +5087,13 @@
         <v>4.311548583745615</v>
       </c>
       <c r="G52" t="n">
-        <v>5.01267065010128e-07</v>
+        <v>5.012670650101282e-07</v>
       </c>
       <c r="H52" t="n">
-        <v>2.161237304222738e-06</v>
+        <v>2.161237304222739e-06</v>
       </c>
       <c r="I52" t="n">
-        <v>3.139699617927272e-05</v>
+        <v>3.139699617927273e-05</v>
       </c>
     </row>
     <row r="53">
@@ -5104,25 +5104,25 @@
         <v>23.71393054818392</v>
       </c>
       <c r="C53" t="n">
-        <v>7.565468018992485e-08</v>
+        <v>7.565468018992488e-08</v>
       </c>
       <c r="D53" t="n">
         <v>1.794069831668944e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>2.924323506055279e-05</v>
+        <v>2.92432350605528e-05</v>
       </c>
       <c r="F53" t="n">
         <v>4.837641831829519</v>
       </c>
       <c r="G53" t="n">
-        <v>7.565468018992485e-08</v>
+        <v>7.565468018992488e-08</v>
       </c>
       <c r="H53" t="n">
-        <v>3.659902456604645e-07</v>
+        <v>3.659902456604646e-07</v>
       </c>
       <c r="I53" t="n">
-        <v>5.965619952352769e-06</v>
+        <v>5.96561995235277e-06</v>
       </c>
     </row>
     <row r="54">
@@ -5133,25 +5133,25 @@
         <v>26.60749384791413</v>
       </c>
       <c r="C54" t="n">
-        <v>8.87166739101234e-09</v>
+        <v>8.871667391012343e-09</v>
       </c>
       <c r="D54" t="n">
         <v>2.360528355271013e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>4.317135901829632e-06</v>
+        <v>4.317135901829633e-06</v>
       </c>
       <c r="F54" t="n">
         <v>5.427928744974483</v>
       </c>
       <c r="G54" t="n">
-        <v>8.87166739101234e-09</v>
+        <v>8.871667391012343e-09</v>
       </c>
       <c r="H54" t="n">
-        <v>4.815477844752865e-08</v>
+        <v>4.815477844752867e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>8.806957239732449e-07</v>
+        <v>8.806957239732451e-07</v>
       </c>
     </row>
     <row r="55">
@@ -5162,10 +5162,10 @@
         <v>29.85412845956938</v>
       </c>
       <c r="C55" t="n">
-        <v>7.195773267466732e-10</v>
+        <v>7.195773267466733e-10</v>
       </c>
       <c r="D55" t="n">
-        <v>2.148235394928871e-08</v>
+        <v>2.148235394928872e-08</v>
       </c>
       <c r="E55" t="n">
         <v>4.408276158930632e-07</v>
@@ -5174,13 +5174,13 @@
         <v>6.090242205752154</v>
       </c>
       <c r="G55" t="n">
-        <v>7.195773267466732e-10</v>
+        <v>7.195773267466733e-10</v>
       </c>
       <c r="H55" t="n">
-        <v>4.382400205654897e-09</v>
+        <v>4.382400205654898e-09</v>
       </c>
       <c r="I55" t="n">
-        <v>8.992883364218486e-08</v>
+        <v>8.992883364218487e-08</v>
       </c>
     </row>
   </sheetData>
@@ -6557,25 +6557,25 @@
         <v>11.88504916863032</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0006069623763280529</v>
+        <v>0.0006069623763280536</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007213777686167609</v>
+        <v>0.007213777686167618</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04406599428945886</v>
+        <v>0.04406599428945891</v>
       </c>
       <c r="F47" t="n">
         <v>2.424550030400585</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0006069623763280529</v>
+        <v>0.0006069623763280536</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001471610647978192</v>
+        <v>0.001471610647978194</v>
       </c>
       <c r="I47" t="n">
-        <v>0.008989462835049606</v>
+        <v>0.008989462835049618</v>
       </c>
     </row>
     <row r="48">
@@ -6586,10 +6586,10 @@
         <v>13.33525760286527</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0002449421848645208</v>
+        <v>0.0002449421848645207</v>
       </c>
       <c r="D48" t="n">
-        <v>0.00326636713297703</v>
+        <v>0.003266367132977029</v>
       </c>
       <c r="E48" t="n">
         <v>0.02238753322948712</v>
@@ -6598,13 +6598,13 @@
         <v>2.720392550984514</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0002449421848645208</v>
+        <v>0.0002449421848645207</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0006663388951273142</v>
+        <v>0.0006663388951273139</v>
       </c>
       <c r="I48" t="n">
-        <v>0.004567056778815375</v>
+        <v>0.004567056778815372</v>
       </c>
     </row>
     <row r="49">
@@ -6615,7 +6615,7 @@
         <v>14.96241982777339</v>
       </c>
       <c r="C49" t="n">
-        <v>8.98029255353785e-05</v>
+        <v>8.980292553537851e-05</v>
       </c>
       <c r="D49" t="n">
         <v>0.001343669073622604</v>
@@ -6627,10 +6627,10 @@
         <v>3.052333644865771</v>
       </c>
       <c r="G49" t="n">
-        <v>8.98029255353785e-05</v>
+        <v>8.980292553537851e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0002741084910190112</v>
+        <v>0.0002741084910190113</v>
       </c>
       <c r="I49" t="n">
         <v>0.002107968720146131</v>
@@ -6647,10 +6647,10 @@
         <v>2.745097628652288e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004608504944681672</v>
+        <v>0.0004608504944681673</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003976510723317876</v>
+        <v>0.003976510723317877</v>
       </c>
       <c r="F50" t="n">
         <v>3.424778043965681</v>
@@ -6659,10 +6659,10 @@
         <v>2.745097628652288e-05</v>
       </c>
       <c r="H50" t="n">
-        <v>9.40135008715061e-05</v>
+        <v>9.401350087150613e-05</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0008112081875568468</v>
+        <v>0.000811208187556847</v>
       </c>
     </row>
     <row r="51">
@@ -6673,25 +6673,25 @@
         <v>18.83660756687859</v>
       </c>
       <c r="C51" t="n">
-        <v>7.125662579413228e-06</v>
+        <v>7.125662579413229e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001342233096623988</v>
+        <v>0.0001342233096623989</v>
       </c>
       <c r="E51" t="n">
-        <v>0.001299482604910419</v>
+        <v>0.00129948260491042</v>
       </c>
       <c r="F51" t="n">
         <v>3.842667943643232</v>
       </c>
       <c r="G51" t="n">
-        <v>7.125662579413228e-06</v>
+        <v>7.125662579413229e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>2.738155517112936e-05</v>
+        <v>2.738155517112937e-05</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0002650944514017256</v>
+        <v>0.0002650944514017257</v>
       </c>
     </row>
     <row r="52">
@@ -6702,25 +6702,25 @@
         <v>21.13504207718439</v>
       </c>
       <c r="C52" t="n">
-        <v>1.541776646285961e-06</v>
+        <v>1.54177664628596e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>3.258551429287401e-05</v>
+        <v>3.2585514292874e-05</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0003539708783772329</v>
+        <v>0.0003539708783772328</v>
       </c>
       <c r="F52" t="n">
         <v>4.311548583745615</v>
       </c>
       <c r="G52" t="n">
-        <v>1.541776646285961e-06</v>
+        <v>1.54177664628596e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>6.647444915746298e-06</v>
+        <v>6.647444915746295e-06</v>
       </c>
       <c r="I52" t="n">
-        <v>7.221005918895551e-05</v>
+        <v>7.221005918895548e-05</v>
       </c>
     </row>
     <row r="53">
@@ -6734,10 +6734,10 @@
         <v>2.633492283439396e-07</v>
       </c>
       <c r="D53" t="n">
-        <v>6.24504531086601e-06</v>
+        <v>6.245045310866012e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>7.611652874678938e-05</v>
+        <v>7.61165287467894e-05</v>
       </c>
       <c r="F53" t="n">
         <v>4.837641831829519</v>
@@ -6760,25 +6760,25 @@
         <v>26.60749384791413</v>
       </c>
       <c r="C54" t="n">
-        <v>3.527727199507264e-08</v>
+        <v>3.527727199507267e-08</v>
       </c>
       <c r="D54" t="n">
-        <v>9.386397975800889e-07</v>
+        <v>9.386397975800895e-07</v>
       </c>
       <c r="E54" t="n">
-        <v>1.283638609417858e-05</v>
+        <v>1.283638609417859e-05</v>
       </c>
       <c r="F54" t="n">
         <v>5.427928744974483</v>
       </c>
       <c r="G54" t="n">
-        <v>3.527727199507264e-08</v>
+        <v>3.527727199507267e-08</v>
       </c>
       <c r="H54" t="n">
-        <v>1.914825187063381e-07</v>
+        <v>1.914825187063383e-07</v>
       </c>
       <c r="I54" t="n">
-        <v>2.618622763212431e-06</v>
+        <v>2.618622763212433e-06</v>
       </c>
     </row>
     <row r="55">
@@ -6789,25 +6789,25 @@
         <v>29.85412845956938</v>
       </c>
       <c r="C55" t="n">
-        <v>3.452376132392767e-09</v>
+        <v>3.452376132392769e-09</v>
       </c>
       <c r="D55" t="n">
-        <v>1.03067680547205e-07</v>
+        <v>1.030676805472051e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>1.581491044181852e-06</v>
+        <v>1.581491044181853e-06</v>
       </c>
       <c r="F55" t="n">
         <v>6.090242205752154</v>
       </c>
       <c r="G55" t="n">
-        <v>3.452376132392767e-09</v>
+        <v>3.452376132392769e-09</v>
       </c>
       <c r="H55" t="n">
-        <v>2.102580683162982e-08</v>
+        <v>2.102580683162983e-08</v>
       </c>
       <c r="I55" t="n">
-        <v>3.226241730130978e-07</v>
+        <v>3.22624173013098e-07</v>
       </c>
     </row>
   </sheetData>
@@ -8184,10 +8184,10 @@
         <v>11.88504916863032</v>
       </c>
       <c r="C47" t="n">
-        <v>5.8391823413909e-05</v>
+        <v>5.839182341390902e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0006939896923202877</v>
+        <v>0.0006939896923202879</v>
       </c>
       <c r="E47" t="n">
         <v>0.01333915544167726</v>
@@ -8196,13 +8196,13 @@
         <v>2.424550030400585</v>
       </c>
       <c r="G47" t="n">
-        <v>2.294700057325732e-05</v>
+        <v>2.294700057325733e-05</v>
       </c>
       <c r="H47" t="n">
-        <v>5.563615093749329e-05</v>
+        <v>5.56361509374933e-05</v>
       </c>
       <c r="I47" t="n">
-        <v>0.001069380818972353</v>
+        <v>0.001069380818972354</v>
       </c>
     </row>
     <row r="48">
@@ -8242,25 +8242,25 @@
         <v>14.96241982777339</v>
       </c>
       <c r="C49" t="n">
-        <v>6.720964374575098e-06</v>
+        <v>6.720964374575097e-06</v>
       </c>
       <c r="D49" t="n">
         <v>0.000100561890619901</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002433378108996385</v>
+        <v>0.002433378108996384</v>
       </c>
       <c r="F49" t="n">
         <v>3.052333644865771</v>
       </c>
       <c r="G49" t="n">
-        <v>2.641225506232094e-06</v>
+        <v>2.641225506232093e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>8.061901476349846e-06</v>
+        <v>8.061901476349845e-06</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0001950804071851157</v>
+        <v>0.0001950804071851156</v>
       </c>
     </row>
     <row r="50">
@@ -8271,25 +8271,25 @@
         <v>16.78812766649844</v>
       </c>
       <c r="C50" t="n">
-        <v>1.199759728925556e-06</v>
+        <v>1.199759728925557e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>2.01417194983258e-05</v>
+        <v>2.014171949832581e-05</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005468561962770679</v>
+        <v>0.0005468561962770684</v>
       </c>
       <c r="F50" t="n">
         <v>3.424778043965681</v>
       </c>
       <c r="G50" t="n">
-        <v>4.71485313830222e-07</v>
+        <v>4.714853138302224e-07</v>
       </c>
       <c r="H50" t="n">
-        <v>1.614732550858013e-06</v>
+        <v>1.614732550858014e-06</v>
       </c>
       <c r="I50" t="n">
-        <v>4.38406711423212e-05</v>
+        <v>4.384067114232124e-05</v>
       </c>
     </row>
     <row r="51">
@@ -8358,25 +8358,25 @@
         <v>23.71393054818392</v>
       </c>
       <c r="C53" t="n">
-        <v>6.15163158412449e-09</v>
+        <v>6.151631584124492e-09</v>
       </c>
       <c r="D53" t="n">
         <v>1.458793641439428e-07</v>
       </c>
       <c r="E53" t="n">
-        <v>5.594634716094926e-06</v>
+        <v>5.594634716094927e-06</v>
       </c>
       <c r="F53" t="n">
         <v>4.837641831829519</v>
       </c>
       <c r="G53" t="n">
-        <v>2.417487333573277e-09</v>
+        <v>2.417487333573278e-09</v>
       </c>
       <c r="H53" t="n">
         <v>1.169493785281209e-08</v>
       </c>
       <c r="I53" t="n">
-        <v>4.485137819037574e-07</v>
+        <v>4.485137819037576e-07</v>
       </c>
     </row>
     <row r="54">
@@ -8387,25 +8387,25 @@
         <v>26.60749384791413</v>
       </c>
       <c r="C54" t="n">
-        <v>6.775467932518838e-10</v>
+        <v>6.775467932518841e-10</v>
       </c>
       <c r="D54" t="n">
         <v>1.802782213312345e-08</v>
       </c>
       <c r="E54" t="n">
-        <v>7.757496094879255e-07</v>
+        <v>7.757496094879258e-07</v>
       </c>
       <c r="F54" t="n">
         <v>5.427928744974483</v>
       </c>
       <c r="G54" t="n">
-        <v>2.662644484134429e-10</v>
+        <v>2.66264448413443e-10</v>
       </c>
       <c r="H54" t="n">
         <v>1.445264453308102e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>6.219072536779523e-08</v>
+        <v>6.219072536779524e-08</v>
       </c>
     </row>
     <row r="55">
@@ -8416,13 +8416,13 @@
         <v>29.85412845956938</v>
       </c>
       <c r="C55" t="n">
-        <v>5.046311004289014e-11</v>
+        <v>5.046311004289015e-11</v>
       </c>
       <c r="D55" t="n">
         <v>1.506532169689828e-09</v>
       </c>
       <c r="E55" t="n">
-        <v>7.273729357201231e-08</v>
+        <v>7.273729357201232e-08</v>
       </c>
       <c r="F55" t="n">
         <v>6.090242205752154</v>
@@ -8431,10 +8431,10 @@
         <v>1.983115010597042e-11</v>
       </c>
       <c r="H55" t="n">
-        <v>1.207765073639873e-10</v>
+        <v>1.207765073639874e-10</v>
       </c>
       <c r="I55" t="n">
-        <v>5.831243732780922e-09</v>
+        <v>5.831243732780924e-09</v>
       </c>
     </row>
   </sheetData>
